--- a/list.xlsx
+++ b/list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="シート1" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="シート1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -20,7 +20,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -28,10 +28,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <color/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -47,11 +47,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -64,10 +65,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -182,21 +179,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -213,7 +210,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -272,28 +269,179 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="11" width="12.57"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>6701.0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>4901.0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>7049.0</v>
       </c>
     </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="2">
+        <v>5406.0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="2">
+        <v>6330.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="2">
+        <v>1662.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="2">
+        <v>7202.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="2">
+        <v>4004.0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2">
+        <v>6315.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="2">
+        <v>5016.0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="2">
+        <v>5892.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="2">
+        <v>4042.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="2">
+        <v>5713.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="2">
+        <v>5214.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="2">
+        <v>7606.0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="2">
+        <v>6902.0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
